--- a/medicine/Enfance/Travelling_(Duculot)/Travelling_(Duculot).xlsx
+++ b/medicine/Enfance/Travelling_(Duculot)/Travelling_(Duculot).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Travelling est une collection de romans pour les adolescent(e)s des éditions belges Duculot.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection naît en 1972
-[1]. Son nom reprend le mouvement de caméra qui permet de s'éloigner ou de s'approcher du sujet, le travelling. Elle présente aussi bien des traductions de romans américains récents et reconnus par la critique, que des romans originaux d'auteurs belges et français. Les romans choisis traitent de l'actualité politique internationale : guerres civiles, massacres, conflits religieux[1]… D'autres sont plus tournés vers des sujets psychologiques.
-Une sous-collection consacrée à la science-fiction apparaît en 1976[2] : Travelling sur le futur.
+. Son nom reprend le mouvement de caméra qui permet de s'éloigner ou de s'approcher du sujet, le travelling. Elle présente aussi bien des traductions de romans américains récents et reconnus par la critique, que des romans originaux d'auteurs belges et français. Les romans choisis traitent de l'actualité politique internationale : guerres civiles, massacres, conflits religieux… D'autres sont plus tournés vers des sujets psychologiques.
+Une sous-collection consacrée à la science-fiction apparaît en 1976 : Travelling sur le futur.
 Dans les années 1990, la collection est reprise par Casterman avant d'être abandonnée.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>no 4 Joan Lingard, Au-delà des barricades
 no 10 Jacqueline Held, La Part du vent (1974)
@@ -569,9 +585,43 @@
 no 65 Claude Raucy, Cocomero
 no 69 Jacqueline Cervon, Les Enfants de la planète
 no 76 Gudrun Pausewang, Les derniers enfants de Schewenborn
-no 83 Marilyn Sachs, La Grosse (1987)
-Travelling sur le futur
-no 1 Eva Maria Mudrich, Ferida, l'île du bonheur (1977)
+no 83 Marilyn Sachs, La Grosse (1987)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Travelling_(Duculot)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Travelling_(Duculot)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travelling sur le futur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>no 1 Eva Maria Mudrich, Ferida, l'île du bonheur (1977)
 no 2 John Christopher, Les Gardiens (1977)
 no 3 Bertrand Solet, Les Frères des nuages (1977)
 no 4 Michel Grimaud, Les Esclaves de la joie (1977)
